--- a/TableDesign/고급유머 게시판 테이블 디자인.xlsx
+++ b/TableDesign/고급유머 게시판 테이블 디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev_program\eclipse_workspace\TableDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA0280-E1AB-4290-A114-5A886B641EBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CBFF3B-8E8A-43A2-B8A2-F02C92100BB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{670E80DF-044E-45CF-8F18-620974CDB585}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{670E80DF-044E-45CF-8F18-620974CDB585}"/>
   </bookViews>
   <sheets>
     <sheet name="게시글" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>게시글 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -251,6 +251,34 @@
   </si>
   <si>
     <t>회원 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hay@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mazin@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gurogu@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +357,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,12 +384,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,9 +426,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292D0E5-3049-49CB-8645-25CAE3212D19}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -886,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7010FA-96FD-49B7-8E8A-3C2DD9B8B9A6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,6 +943,7 @@
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -925,6 +973,19 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2" s="12">
+        <f>DATE(2024,2,28)</f>
+        <v>45350</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -933,6 +994,19 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>4332</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F5" si="0">DATE(2024,2,28)</f>
+        <v>45350</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -941,6 +1015,19 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>1126</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>45350</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -949,9 +1036,28 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>1112</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>45350</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{327270A2-9FEF-45D9-B604-8ACB741B4B45}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1A7FAB1C-54D9-4267-AEF5-6B0D5F0127EA}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CCC7C1B6-76EF-48DF-83A3-81326B9447F5}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3B75E4AC-01CA-4582-82E8-4749665DED65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -961,7 +1067,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1030,6 +1136,9 @@
       <c r="H2" s="9">
         <v>45292.550127314818</v>
       </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1056,6 +1165,9 @@
       <c r="H3" s="9">
         <v>45293.550127314818</v>
       </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1082,6 +1194,9 @@
       <c r="H4" s="9">
         <v>45294.550127314818</v>
       </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1108,6 +1223,9 @@
       <c r="H5" s="9">
         <v>45295.550127314818</v>
       </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1134,6 +1252,9 @@
       <c r="H6" s="9">
         <v>45296.550127314818</v>
       </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1160,6 +1281,9 @@
       <c r="H7" s="9">
         <v>45297.550127314818</v>
       </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1186,6 +1310,9 @@
       <c r="H8" s="9">
         <v>45298.550127314818</v>
       </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1212,6 +1339,9 @@
       <c r="H9" s="9">
         <v>45299.550127314818</v>
       </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1238,6 +1368,9 @@
       <c r="H10" s="9">
         <v>45300.550127314818</v>
       </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1264,10 +1397,14 @@
       <c r="H11" s="9">
         <v>45301.550127314818</v>
       </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
